--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4811,4 +4812,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5922</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001877</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈国家安全战略沪港深股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5514,4 +5515,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4163</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5799,4 +5800,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5808,7 +5809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,17 +5820,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5839,14 +5860,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.05</v>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5855,14 +5898,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.859999999999999</v>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6092</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5871,14 +5936,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.56</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5887,13 +5974,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4988</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>62</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>22.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6397,7 +6398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6408,17 +6409,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6428,14 +6449,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.37</v>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4400</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6444,14 +6487,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.05</v>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6460,14 +6525,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.859999999999999</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6476,14 +6563,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.56</v>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6492,13 +6601,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>62</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>22.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6758,7 +6759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6769,17 +6770,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6789,14 +6810,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.68</v>
       </c>
     </row>
     <row r="3">
@@ -6805,14 +6848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.37</v>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5599</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6821,14 +6886,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.05</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6837,14 +6924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.859999999999999</v>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6853,14 +6962,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.56</v>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6869,13 +7000,939 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006214</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500ETF联接A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>51.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013515</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.859999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>22.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3.98</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>5.68</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>11.37</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>6.05</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>8.859999999999999</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>17.56</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>62</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>22.01</v>
       </c>
     </row>
@@ -600,6 +617,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5933</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1999,7 +2300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2587,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2871,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3573,7 +3874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5529,7 +5830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002706-良信股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>3.1</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.98</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>5.68</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>11.37</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>6.05</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>8.859999999999999</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>17.56</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2442 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>62</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>22.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富价值创造定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>95.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3186</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1015</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6129</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5903</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4503</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1935</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004225</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004226</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>50.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006143</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006144</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>恒生前海中证质量成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3046,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>257010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国联安小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013323</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安价值优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002367</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安安稳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014523</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013324</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保盛泽三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -900,7 +4221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1940,7 +5261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2300,7 +5621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2888,7 +6209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3172,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3874,7 +7195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5828,2416 +9149,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519066</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.7861</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005379</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富价值创造定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>95.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.0627</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010049</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3186</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000977</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城环保主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2251</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501065</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富经典成长定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.59</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1015</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>202023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方优选成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>39.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7722</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002542</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长城久鼎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7659</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006696</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>97.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6225</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>200007</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城安心回报混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.51</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6146</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>200006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城消费增值混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.73</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6129</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>257010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国联安小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5903</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008185</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安研究优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5378</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5126</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005738</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城智能产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.4503</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3981</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3978</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006769</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长城研究精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3965</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002376</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保核心产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.45</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3429</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001040</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新华策略精选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3343</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001672</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保智慧生活股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3312</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>200012</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>长城中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>86.77</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3017</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2834</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.41</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2068</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000431</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华品牌传承混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1993</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.1941</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519673</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银河康乐股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>82.21</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.1935</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004225</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1932</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1839</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>206012</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华价值精选股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1353</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005206</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>南方优选成长混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1192</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>002367</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国联安安稳灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>39.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1074</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>38.42</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010050</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>长城成长先锋混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>43.82</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004226</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003004</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>招商睿祥定期开放混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>50.61</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0476</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>005175</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0404</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>200016</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>长城稳健成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>78.87</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0366</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>000679</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>200015</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>长城优化升级混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>83.03</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001363</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>长城久惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>002543</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>长城久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>006138</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>国联安价值优选股票</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91.51</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0141</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006143</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>29.12</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002544</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>长城久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>90.70</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>002416</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>招商丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006144</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>恒生前海中证质量成长低波动指数C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>